--- a/Trade_Tracker.xlsx
+++ b/Trade_Tracker.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/finlaysmith/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/finlaysmith/Desktop/Trade Planner/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD1CDD89-6081-6041-82EA-04270E43C963}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{126657F9-9402-7E41-A51C-FAA7F7D469FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="780" windowWidth="19160" windowHeight="11120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -497,7 +497,7 @@
   <dimension ref="A1:X7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/Trade_Tracker.xlsx
+++ b/Trade_Tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/finlaysmith/Desktop/Trade Planner/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{126657F9-9402-7E41-A51C-FAA7F7D469FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{557B00AC-1CDF-F643-BDB1-9BA16274875E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="780" windowWidth="19160" windowHeight="11120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34200" windowHeight="21380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Trades" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
   <si>
     <t>Trade Date</t>
   </si>
@@ -117,6 +117,18 @@
   </si>
   <si>
     <t>10:00AM</t>
+  </si>
+  <si>
+    <t>07/18/2023</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>08:20AM</t>
+  </si>
+  <si>
+    <t>tight stop news took out then went to take profit</t>
   </si>
 </sst>
 </file>
@@ -494,10 +506,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X7"/>
+  <dimension ref="A1:X8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -568,7 +580,7 @@
       </c>
       <c r="J2">
         <f>COUNTIF(E:E,"Win") / (COUNTIF(E:E,"Win") + COUNTIF(E:E,"Lose"))</f>
-        <v>0.8</v>
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
@@ -717,6 +729,26 @@
       </c>
       <c r="G7" s="4">
         <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A8" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/Trade_Tracker.xlsx
+++ b/Trade_Tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/finlaysmith/Desktop/Trade Planner/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{557B00AC-1CDF-F643-BDB1-9BA16274875E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46E2EB8C-FDD3-F84A-A341-675CC252C767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34200" windowHeight="21380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13320" yWindow="3420" windowWidth="19160" windowHeight="11120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Trades" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="51">
   <si>
     <t>Trade Date</t>
   </si>
@@ -129,6 +129,63 @@
   </si>
   <si>
     <t>tight stop news took out then went to take profit</t>
+  </si>
+  <si>
+    <t>1:2.79</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>09:45AM</t>
+  </si>
+  <si>
+    <t>11:00AM</t>
+  </si>
+  <si>
+    <t>09:00AM</t>
+  </si>
+  <si>
+    <t>13:30PM</t>
+  </si>
+  <si>
+    <t>1:2.18</t>
+  </si>
+  <si>
+    <t>1:1.3</t>
+  </si>
+  <si>
+    <t>Friday</t>
+  </si>
+  <si>
+    <t>10:30AM</t>
+  </si>
+  <si>
+    <t>14:00PM</t>
+  </si>
+  <si>
+    <t>07/25/2023</t>
+  </si>
+  <si>
+    <t>11:30AM</t>
+  </si>
+  <si>
+    <t>Entry not on second leg large move already been made</t>
+  </si>
+  <si>
+    <t>trades on EURUSD/GBPUSD unless said otherwise</t>
+  </si>
+  <si>
+    <t>08:00AM</t>
+  </si>
+  <si>
+    <t>08/14/2023</t>
+  </si>
+  <si>
+    <t>1:2.43</t>
+  </si>
+  <si>
+    <t>Charging towards take profit let take some off let it run a bit couldve been 6 RR</t>
   </si>
 </sst>
 </file>
@@ -182,7 +239,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -200,6 +257,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -506,10 +566,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X8"/>
+  <dimension ref="A1:X14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -518,6 +578,7 @@
     <col min="6" max="6" width="18.6640625" style="6" customWidth="1"/>
     <col min="7" max="7" width="10.6640625" customWidth="1"/>
     <col min="9" max="10" width="15.6640625" customWidth="1"/>
+    <col min="12" max="12" width="40" customWidth="1"/>
     <col min="17" max="17" width="9.6640625" customWidth="1"/>
     <col min="18" max="18" width="14.83203125" customWidth="1"/>
   </cols>
@@ -550,6 +611,7 @@
       <c r="J1" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="L1" s="1"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
@@ -611,7 +673,10 @@
       </c>
       <c r="J3" s="4">
         <f>AVERAGEIF(E:E, "&lt;&gt;Break Even", G:G)</f>
-        <v>2.4079999999999999</v>
+        <v>2.3044444444444441</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="Q3" t="s">
         <v>21</v>
@@ -738,18 +803,140 @@
       <c r="B8" t="s">
         <v>29</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="13" t="s">
         <v>25</v>
       </c>
       <c r="E8" t="s">
         <v>9</v>
       </c>
+      <c r="F8" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="4">
+        <v>2.79</v>
+      </c>
       <c r="H8" t="s">
         <v>31</v>
       </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A9" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A10" s="9">
+        <v>45177</v>
+      </c>
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A11" s="9">
+        <v>45207</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="4">
+        <v>2.1800000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A12" s="9">
+        <v>45238</v>
+      </c>
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" s="4">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A13" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G13" s="4">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="H13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A14" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Trade_Tracker.xlsx
+++ b/Trade_Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/finlaysmith/Desktop/Trade Planner/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46E2EB8C-FDD3-F84A-A341-675CC252C767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2709A06A-369D-6247-A222-5F1CDB3E60DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13320" yWindow="3420" windowWidth="19160" windowHeight="11120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Trade_Tracker.xlsx
+++ b/Trade_Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/finlaysmith/Desktop/Trade Planner/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2709A06A-369D-6247-A222-5F1CDB3E60DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9DCBAFE-044E-4148-9E68-CD77C8010207}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13320" yWindow="3420" windowWidth="19160" windowHeight="11120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Trade_Tracker.xlsx
+++ b/Trade_Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/finlaysmith/Desktop/Trade Planner/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9DCBAFE-044E-4148-9E68-CD77C8010207}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FA3EB36-F6EF-3046-916C-3CB8E06B0EA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13320" yWindow="3420" windowWidth="19160" windowHeight="11120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="61">
   <si>
     <t>Trade Date</t>
   </si>
@@ -186,6 +186,36 @@
   </si>
   <si>
     <t>Charging towards take profit let take some off let it run a bit couldve been 6 RR</t>
+  </si>
+  <si>
+    <t>08/17/2023</t>
+  </si>
+  <si>
+    <t>1:1.97</t>
+  </si>
+  <si>
+    <t>08/23/2023</t>
+  </si>
+  <si>
+    <t>Close</t>
+  </si>
+  <si>
+    <t>09:30AM</t>
+  </si>
+  <si>
+    <t>15:00PM</t>
+  </si>
+  <si>
+    <t>1:1.83</t>
+  </si>
+  <si>
+    <t>1:2.15</t>
+  </si>
+  <si>
+    <t>1.80</t>
+  </si>
+  <si>
+    <t>Tried to trade to new week opening gap didn’t follow trade plan</t>
   </si>
 </sst>
 </file>
@@ -239,7 +269,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -261,6 +291,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -566,10 +599,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X14"/>
+  <dimension ref="A1:X20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -642,7 +675,7 @@
       </c>
       <c r="J2">
         <f>COUNTIF(E:E,"Win") / (COUNTIF(E:E,"Win") + COUNTIF(E:E,"Lose"))</f>
-        <v>0.66666666666666663</v>
+        <v>0.5625</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
@@ -673,7 +706,7 @@
       </c>
       <c r="J3" s="4">
         <f>AVERAGEIF(E:E, "&lt;&gt;Break Even", G:G)</f>
-        <v>2.3044444444444441</v>
+        <v>2.1659999999999995</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>46</v>
@@ -925,6 +958,9 @@
       <c r="D13" s="13" t="s">
         <v>25</v>
       </c>
+      <c r="E13" s="14" t="s">
+        <v>7</v>
+      </c>
       <c r="F13" s="6" t="s">
         <v>49</v>
       </c>
@@ -936,7 +972,147 @@
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A14" s="13"/>
+      <c r="A14" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G14" s="4">
+        <v>1.97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A15" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A16" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G16" s="4">
+        <v>1.83</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="9">
+        <v>45176</v>
+      </c>
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="9">
+        <v>45180</v>
+      </c>
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G18" s="4">
+        <v>2.15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="9">
+        <v>45195</v>
+      </c>
+      <c r="B19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G19" s="4">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H20" t="s">
+        <v>60</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Trade_Tracker.xlsx
+++ b/Trade_Tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/finlaysmith/Desktop/Trade Planner/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FA3EB36-F6EF-3046-916C-3CB8E06B0EA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D62726B-ED7E-F140-A23B-A4C5099410B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13320" yWindow="3420" windowWidth="19160" windowHeight="11120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7420" yWindow="4300" windowWidth="19160" windowHeight="11720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Trades" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="62">
   <si>
     <t>Trade Date</t>
   </si>
@@ -215,7 +215,10 @@
     <t>1.80</t>
   </si>
   <si>
-    <t>Tried to trade to new week opening gap didn’t follow trade plan</t>
+    <t>09/26/2023</t>
+  </si>
+  <si>
+    <t>08/24/2023</t>
   </si>
 </sst>
 </file>
@@ -599,10 +602,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X20"/>
+  <dimension ref="A1:X19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1019,7 +1022,7 @@
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="B16" t="s">
         <v>20</v>
@@ -1040,9 +1043,9 @@
         <v>1.83</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="9">
-        <v>45176</v>
+        <v>45116</v>
       </c>
       <c r="B17" t="s">
         <v>20</v>
@@ -1063,9 +1066,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="9">
-        <v>45180</v>
+        <v>45239</v>
       </c>
       <c r="B18" t="s">
         <v>19</v>
@@ -1086,9 +1089,9 @@
         <v>2.15</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="9">
-        <v>45195</v>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="11" t="s">
+        <v>60</v>
       </c>
       <c r="B19" t="s">
         <v>29</v>
@@ -1107,11 +1110,6 @@
       </c>
       <c r="G19" s="4">
         <v>1.8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H20" t="s">
-        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/Trade_Tracker.xlsx
+++ b/Trade_Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/finlaysmith/Desktop/Trade Planner/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D62726B-ED7E-F140-A23B-A4C5099410B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F0189AB-F262-E848-AC17-262047417B41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7420" yWindow="4300" windowWidth="19160" windowHeight="11720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="63">
   <si>
     <t>Trade Date</t>
   </si>
@@ -219,6 +219,9 @@
   </si>
   <si>
     <t>08/24/2023</t>
+  </si>
+  <si>
+    <t>10:15AM</t>
   </si>
 </sst>
 </file>
@@ -602,10 +605,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X19"/>
+  <dimension ref="A1:X20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -678,7 +681,7 @@
       </c>
       <c r="J2">
         <f>COUNTIF(E:E,"Win") / (COUNTIF(E:E,"Win") + COUNTIF(E:E,"Lose"))</f>
-        <v>0.5625</v>
+        <v>0.52941176470588236</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
@@ -709,7 +712,7 @@
       </c>
       <c r="J3" s="4">
         <f>AVERAGEIF(E:E, "&lt;&gt;Break Even", G:G)</f>
-        <v>2.1659999999999995</v>
+        <v>2.1556249999999997</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>46</v>
@@ -1110,6 +1113,29 @@
       </c>
       <c r="G19" s="4">
         <v>1.8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="9">
+        <v>45216</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G20" s="4">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Trade_Tracker.xlsx
+++ b/Trade_Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/finlaysmith/Desktop/Trade Planner/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F0189AB-F262-E848-AC17-262047417B41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC9FB7FD-4DA2-774C-AD2E-A42062ADEA03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7420" yWindow="4300" windowWidth="19160" windowHeight="11720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="64">
   <si>
     <t>Trade Date</t>
   </si>
@@ -222,6 +222,9 @@
   </si>
   <si>
     <t>10:15AM</t>
+  </si>
+  <si>
+    <t>1:2.37</t>
   </si>
 </sst>
 </file>
@@ -605,10 +608,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X20"/>
+  <dimension ref="A1:X21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -681,7 +684,7 @@
       </c>
       <c r="J2">
         <f>COUNTIF(E:E,"Win") / (COUNTIF(E:E,"Win") + COUNTIF(E:E,"Lose"))</f>
-        <v>0.52941176470588236</v>
+        <v>0.55555555555555558</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
@@ -712,7 +715,7 @@
       </c>
       <c r="J3" s="4">
         <f>AVERAGEIF(E:E, "&lt;&gt;Break Even", G:G)</f>
-        <v>2.1556249999999997</v>
+        <v>2.1682352941176468</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>46</v>
@@ -1136,6 +1139,29 @@
       </c>
       <c r="G20" s="4">
         <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="9">
+        <v>45217</v>
+      </c>
+      <c r="B21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G21" s="4">
+        <v>2.37</v>
       </c>
     </row>
   </sheetData>

--- a/Trade_Tracker.xlsx
+++ b/Trade_Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/finlaysmith/Desktop/Trade Planner/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC9FB7FD-4DA2-774C-AD2E-A42062ADEA03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8FFB162-DB43-1044-AE3F-1007B4C92996}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7420" yWindow="4300" windowWidth="19160" windowHeight="11720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="66">
   <si>
     <t>Trade Date</t>
   </si>
@@ -225,6 +225,12 @@
   </si>
   <si>
     <t>1:2.37</t>
+  </si>
+  <si>
+    <t>1:1.91</t>
+  </si>
+  <si>
+    <t>08:15AM</t>
   </si>
 </sst>
 </file>
@@ -278,7 +284,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -304,6 +310,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -608,10 +615,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X21"/>
+  <dimension ref="A1:X23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -684,7 +691,7 @@
       </c>
       <c r="J2">
         <f>COUNTIF(E:E,"Win") / (COUNTIF(E:E,"Win") + COUNTIF(E:E,"Lose"))</f>
-        <v>0.55555555555555558</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
@@ -715,7 +722,7 @@
       </c>
       <c r="J3" s="4">
         <f>AVERAGEIF(E:E, "&lt;&gt;Break Even", G:G)</f>
-        <v>2.1682352941176468</v>
+        <v>2.1984210526315784</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>46</v>
@@ -1162,6 +1169,52 @@
       </c>
       <c r="G21" s="4">
         <v>2.37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="9">
+        <v>45223</v>
+      </c>
+      <c r="B22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="G22" s="4">
+        <v>1.91</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="9">
+        <v>45239</v>
+      </c>
+      <c r="B23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" s="4">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Trade_Tracker.xlsx
+++ b/Trade_Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/finlaysmith/Desktop/Trade Planner/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8FFB162-DB43-1044-AE3F-1007B4C92996}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC2E4F45-EB77-8949-86CE-824FB10BD8F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7420" yWindow="4300" windowWidth="19160" windowHeight="11720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -310,7 +310,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -617,8 +619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/Trade_Tracker.xlsx
+++ b/Trade_Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/finlaysmith/Desktop/Trade Planner/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC2E4F45-EB77-8949-86CE-824FB10BD8F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1695412-3500-8840-95B4-8AD75065A8E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7420" yWindow="4300" windowWidth="19160" windowHeight="11720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Trade_Tracker.xlsx
+++ b/Trade_Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/finlaysmith/Desktop/Trade Planner/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1695412-3500-8840-95B4-8AD75065A8E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4452F8B0-6862-CE43-944C-91837733BBA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7420" yWindow="4300" windowWidth="19160" windowHeight="11720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
